--- a/GoogleDrive/Prototype/Component List.xlsx
+++ b/GoogleDrive/Prototype/Component List.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
-  <si>
-    <t>Component list</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t xml:space="preserve">Item </t>
   </si>
@@ -152,6 +149,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -163,33 +163,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>2.0</v>
@@ -202,15 +200,15 @@
         <v>32.9</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -223,15 +221,15 @@
         <v>5.45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
@@ -244,15 +242,15 @@
         <v>13.95</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
@@ -265,15 +263,15 @@
         <v>13.95</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>1.0</v>
@@ -286,15 +284,15 @@
         <v>2.15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -307,15 +305,15 @@
         <v>4.95</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
@@ -328,15 +326,15 @@
         <v>13.5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>1.0</v>
@@ -349,15 +347,15 @@
         <v>8.95</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4">
         <f>SUM(D4:D11)</f>
